--- a/Glosario y Reseñas  Pueblos GT.xlsx
+++ b/Glosario y Reseñas  Pueblos GT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-PUEBLOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-PUEBLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD9B744-64DA-4116-B77E-B114BC8BF92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC2331-F746-4B01-A9B2-085C5865942D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A42F21A4-5D28-4FF8-89B3-B9A631EB2D69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A42F21A4-5D28-4FF8-89B3-B9A631EB2D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario Data Pueblos GT" sheetId="28" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
   <si>
     <t xml:space="preserve">GLOSARIO DATA PUEBLOS </t>
   </si>
@@ -974,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89E5B61D-1371-4FEF-88B9-BDCFD5B4CFE7}" name="Glosario_general_CL_GT" displayName="Glosario_general_CL_GT" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{B9CD52D0-84A3-48BA-8208-56A6B125E7A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89E5B61D-1371-4FEF-88B9-BDCFD5B4CFE7}" name="Glosario_general_CL_GT" displayName="Glosario_general_CL_GT" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{B9CD52D0-84A3-48BA-8208-56A6B125E7A4}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{47829CA8-0F6A-4244-8BF8-BBB5D59C6D87}" name="Código"/>
     <tableColumn id="1" xr3:uid="{8B8DA6DF-08A2-42F9-A052-6A16A843C3F4}" name="Concepto"/>
@@ -1311,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3EE3A-1C26-4EA7-A289-72E3B06B5B99}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
@@ -1840,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F26D00-5F21-4445-BCDB-408F9A4965AD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,6 +1938,17 @@
       </c>
       <c r="C8" s="8" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2300,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Glosario y Reseñas  Pueblos GT.xlsx
+++ b/Glosario y Reseñas  Pueblos GT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-PUEBLOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-PUEBLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC2331-F746-4B01-A9B2-085C5865942D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D222CF-F085-4C71-9F56-168CD022AD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A42F21A4-5D28-4FF8-89B3-B9A631EB2D69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A42F21A4-5D28-4FF8-89B3-B9A631EB2D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario Data Pueblos GT" sheetId="28" r:id="rId1"/>
@@ -568,9 +568,6 @@
     <t>Otras definiciones</t>
   </si>
   <si>
-    <t>Ladina</t>
-  </si>
-  <si>
     <t>Según la historia documental del idioma Maya Q’anjob’al se remonta desde los 2,500 años A. C. El idioma Q’anjob’al es un idioma ancestral que se derivó del Idioma Protomaya o del idioma arcaico, que se hablaba antes de los siglos mencionados anteriormente. El idioma arcaico se le denomina también como “Idioma Madre”. Posteriormente el idioma protomaya tuvo varias ramas que más adelante se detalla. En los años de 1,300 D. C. el idioma Q’anjob’al tuvo sus ramas que se derivó del Q’anjob’alano que son: Q’anjob’al propio , Akateko y el Popti’. El idioma Q’anjob’al forma parte de los estudios de la lingüística; rica en cuanto al estudio fonológico, fonética, morfológico, sintaxis, cosmogónico y léxicos. Así mismo comparte otras ramas de estudios como: la dialectología, Normalización Lingüística, la Actualización Lexical (Neologismos). El Gobierno de Guatemala ha creado leyes que favorece la utilización del idioma Maya Q’anjob’al en todos los ámbitos sociales y favorece a otros idiomas Mayas que se habla en el mismo territorio, tal como reza en los artículos 65 a 66 de la Constitución Política de la República; El Acuerdo de Identidad y Derechos de los Pueblos Indígenas, literal A; el Convenio 169 artículo 5, inciso a); El Decreto Ley 65-90 Ley de la Academia de Lenguas Mayas de Guatemala y la ley 19-2003 Ley de Idiomas Nacionales.</t>
   </si>
   <si>
@@ -693,10 +690,6 @@
     <t xml:space="preserve">Es un pueblo que comparte una cultura común y se establece en Guatemala. Los adjetivos asignados a los garífunas, varían de acuerdo al momento histórico así como el enfoque que se dé al respecto. De esa cuenta los estudios los denominan: caribes-negros, caribes, morenos, garífuna, garinagu, afrodescendiente, de ascendencia inglesa, entre otros. El pueblo Garífuna es rico en expresiones culturales al igual que todas las culturas, y sin duda la música y la danza son las más importantes pues estas forman parte de sus ceremonias, las cuales algunas son sagradas. Su festividad principal es el Yurumein que celebra la llegada a nuestras tierras de la cultura Garífuna. </t>
   </si>
   <si>
-    <t>Este pueblo se encontraba en tierras mesoamericanas antes del arribo de los españoles. Su cultura específica está subsumida ante la cultura latina del oriente de Guatemala, así como su idioma que está al borde de la extinción. La palabra Xinka en su idioma se entiende como seres que fueron creados o formados o seres únicos. La cultura Xinka concibe al humano como un componente más del mundo y que se encuentra en constante relación con otros elementos. Para los Xinkas el ser humano está constituido por energía y el alma, que se complementa con el agua que da vida.  Los lugares que en la época hispánica se identificaron como comunidades Xinkas, se
-encuentran en los departamentos del suroriente del país, como Jutiapa, Jalapa y Santa Rosa. El Pueblo Xinka actualmente es un grupo de cuatro variantes lingüísticas vinculadas en Yupiltepeque, Jalpa Guazacapán, Chiquimulilla y Jumaytepeque.</t>
-  </si>
-  <si>
     <t>Este pueblo incluye a los mestizos y los descendientes de indígenas que se consideran mestizados desde el aspecto cultural. En los últimos años se ha dado un proceso de búsqueda y reacomodo en la identidad de los miembros del pueblo ladino, por las siguientes razones: no todos los ladinos aceptan dicha denominación prefiriendo autodenominarse mestizos, como también sucede que hay personas que no aceptan llamarse “mestizos” y prefieren la denominación “ladino”; asimismo, existen personas que se denominan “blancos” o “criollos”.</t>
   </si>
   <si>
@@ -811,6 +804,12 @@
   </si>
   <si>
     <t>Persona que tiene la capacidad de leer y escribir en el idioma señalado. (Fuente: Censo 2018)</t>
+  </si>
+  <si>
+    <t>Este pueblo se encontraba en tierras mesoamericanas antes del arribo de los españoles. Su cultura específica está subsumida ante la cultura latina del oriente de Guatemala, así como su idioma que está al borde de la extinción. La palabra Xinka en su idioma se entiende como seres que fueron creados o formados o seres únicos. La cultura Xinka concibe al humano como un componente más del mundo y que se encuentra en constante relación con otros elementos. Para los Xinkas el ser humano está constituido por energía y el alma, que se complementa con el agua que da vida.  Los lugares que en la época hispánica se identificaron como comunidades Xinkas, se encuentran en los departamentos del suroriente del país, como Jutiapa, Jalapa y Santa Rosa. El Pueblo Xinka actualmente es un grupo de cuatro variantes lingüísticas vinculadas en Yupiltepeque, Jalpa Guazacapán, Chiquimulilla y Jumaytepeque.</t>
+  </si>
+  <si>
+    <t>Ladino</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3EE3A-1C26-4EA7-A289-72E3B06B5B99}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1337,10 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,51 +1362,51 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F26D00-5F21-4445-BCDB-408F9A4965AD}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1868,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,7 +1881,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,10 +1900,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,10 +1911,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,10 +1944,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2322,15 +2321,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2338,47 +2337,47 @@
         <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2426,10 +2425,10 @@
         <v>80</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2440,10 +2439,10 @@
         <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -2454,10 +2453,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -2468,10 +2467,10 @@
         <v>83</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -2482,10 +2481,10 @@
         <v>84</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2510,10 +2509,10 @@
         <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -2524,10 +2523,10 @@
         <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -2535,13 +2534,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2549,13 +2548,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -2566,10 +2565,10 @@
         <v>91</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -2580,10 +2579,10 @@
         <v>92</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2594,10 +2593,10 @@
         <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2608,10 +2607,10 @@
         <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -2619,13 +2618,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -2633,13 +2632,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2647,13 +2646,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2661,13 +2660,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2675,13 +2674,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2689,13 +2688,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -2703,13 +2702,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -2717,13 +2716,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">

--- a/Glosario y Reseñas  Pueblos GT.xlsx
+++ b/Glosario y Reseñas  Pueblos GT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-PUEBLOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D222CF-F085-4C71-9F56-168CD022AD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E78DF9-9817-41F2-8CAB-B2BE8ECED697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A42F21A4-5D28-4FF8-89B3-B9A631EB2D69}"/>
   </bookViews>
@@ -1311,7 +1311,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
